--- a/biology/Botanique/Forêts_montagneuses_du_centre_de_la_Colombie-Britannique/Forêts_montagneuses_du_centre_de_la_Colombie-Britannique.xlsx
+++ b/biology/Botanique/Forêts_montagneuses_du_centre_de_la_Colombie-Britannique/Forêts_montagneuses_du_centre_de_la_Colombie-Britannique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
+          <t>Forêts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts montagneuses du centre de la Colombie-Britannique (Central British Columbia Mountain forests)  sont une écorégion terrestre nord-américaine du type Forêts de conifères tempérées du World Wildlife Fund[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts montagneuses du centre de la Colombie-Britannique (Central British Columbia Mountain forests)  sont une écorégion terrestre nord-américaine du type Forêts de conifères tempérées du World Wildlife Fund.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
+          <t>Forêts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette écorégion s'étend dans le centre-nord de la province de la Colombie-Britannique au Canada.  
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
+          <t>Forêts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La température moyenne annuelle est de 2 °C.  La température estivale moyenne est de 12 °C et la température hivernale moyenne varie entre −10 °C et −7 °C.  Le taux de précipitations annuel oscille entre 500 mm et 700 mm. 
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
+          <t>Forêts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Caractéristiques biologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La composition des forêts de cette écorégion varie selon les régions et l'altitude.  Elles comprennent le plus souvent le cèdre de l'Ouest, la pruche de l'Ouest, le pin tordu, le peuplier faux-tremble, l'épinette blanche, l'épinette noire, l'épinette d'Engelmann et le sapin subalpin.  Les éricacées, les carex, le phyllodoce à feuilles de camarine et le Dryas hookeriana sont les principales espèces de la toundra subalpine.  
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
+          <t>Forêts_montagneuses_du_centre_de_la_Colombie-Britannique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette écorégion est intacte dans une proportion de 75 %.
 </t>
